--- a/teamsdata.xlsx
+++ b/teamsdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9050268C-F276-457C-B729-4012125E5561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1F32F7-D593-437D-87E8-9D2C464464EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4836" yWindow="1730" windowWidth="15474" windowHeight="7877" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樂天桃猿" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="32">
   <si>
     <t>年度</t>
   </si>
@@ -114,6 +114,20 @@
   </si>
   <si>
     <t>2014(上)</t>
+  </si>
+  <si>
+    <t>2022(下)</t>
+  </si>
+  <si>
+    <t>2022(下)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022(上)</t>
+  </si>
+  <si>
+    <t>2022(上)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -453,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -501,37 +515,37 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>60</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2">
-        <v>0.45600000000000002</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -539,37 +553,37 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>60</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.627</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -577,77 +591,153 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>60</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.41699999999999998</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>14</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="G6">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>21</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>60</v>
-      </c>
-      <c r="C5">
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7">
         <v>34</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>26</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>0.56699999999999995</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <v>18</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <v>12</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>16</v>
-      </c>
-      <c r="K5">
-        <v>14</v>
-      </c>
-      <c r="L5">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>14</v>
+      </c>
+      <c r="L7">
         <v>0</v>
       </c>
     </row>
@@ -660,313 +750,313 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C02564-04BC-4BE3-A13E-C065AD119769}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>37</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="H2">
         <v>12</v>
       </c>
-      <c r="B1" s="1">
-        <v>60</v>
-      </c>
-      <c r="C1" s="1">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="G1" s="1">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="G3">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
         <v>15</v>
       </c>
-      <c r="H1" s="1">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1">
-        <v>60</v>
-      </c>
-      <c r="C2" s="1">
-        <v>35</v>
-      </c>
-      <c r="D2" s="1">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="G2" s="1">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1">
-        <v>60</v>
-      </c>
-      <c r="C3" s="1">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="G3" s="1">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1">
-        <v>15</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
+      <c r="L3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="G4" s="1">
         <v>15</v>
       </c>
-      <c r="B4" s="1">
-        <v>60</v>
-      </c>
-      <c r="C4" s="1">
-        <v>37</v>
-      </c>
-      <c r="D4" s="1">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="G4" s="1">
-        <v>18</v>
-      </c>
       <c r="H4" s="1">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1">
         <v>12</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>19</v>
-      </c>
-      <c r="K4" s="1">
-        <v>11</v>
-      </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>60</v>
       </c>
       <c r="C5" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1">
         <v>24</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>0.6</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="G5" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K5" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>60</v>
       </c>
       <c r="C6" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
       </c>
       <c r="F6" s="1">
-        <v>0.44800000000000001</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="G6" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K6" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="G7" s="1">
         <v>18</v>
       </c>
-      <c r="B7" s="1">
-        <v>60</v>
-      </c>
-      <c r="C7" s="1">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="G7" s="1">
-        <v>16</v>
-      </c>
       <c r="H7" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K7" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <v>60</v>
       </c>
       <c r="C8" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0.33300000000000002</v>
+        <v>0.6</v>
       </c>
       <c r="G8" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K8" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
@@ -974,31 +1064,31 @@
     </row>
     <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>60</v>
       </c>
       <c r="C9" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
-        <v>0.38300000000000001</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1">
         <v>12</v>
@@ -1012,75 +1102,75 @@
     </row>
     <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
         <v>60</v>
       </c>
       <c r="C10" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>0.52600000000000002</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G10" s="1">
         <v>16</v>
       </c>
       <c r="H10" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K10" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>60</v>
       </c>
       <c r="C11" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="G11" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="K11" s="1">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="L11" s="1">
         <v>0</v>
@@ -1088,113 +1178,113 @@
     </row>
     <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1">
         <v>23</v>
       </c>
-      <c r="B12" s="1">
-        <v>60</v>
-      </c>
-      <c r="C12" s="1">
-        <v>35</v>
-      </c>
       <c r="D12" s="1">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>0.60299999999999998</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H12" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="K12" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1">
         <v>60</v>
       </c>
       <c r="C13" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="1">
-        <v>0.61</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="G13" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H13" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K13" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1">
         <v>60</v>
       </c>
       <c r="C14" s="1">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1">
         <v>27</v>
       </c>
-      <c r="D14" s="1">
-        <v>33</v>
-      </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>0.45</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G14" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K14" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
@@ -1202,77 +1292,191 @@
     </row>
     <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>60</v>
       </c>
       <c r="C15" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1">
-        <v>0.54400000000000004</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="G15" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K15" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="G16" s="1">
+        <v>18</v>
+      </c>
+      <c r="H16" s="1">
+        <v>11</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>18</v>
+      </c>
+      <c r="K16" s="1">
+        <v>12</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1">
         <v>27</v>
       </c>
-      <c r="B16" s="1">
-        <v>60</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="D17" s="1">
+        <v>33</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G17" s="1">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>13</v>
+      </c>
+      <c r="K17" s="1">
+        <v>17</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1">
+        <v>60</v>
+      </c>
+      <c r="C18" s="1">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="G18" s="1">
+        <v>17</v>
+      </c>
+      <c r="H18" s="1">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>14</v>
+      </c>
+      <c r="K18" s="1">
+        <v>14</v>
+      </c>
+      <c r="L18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1">
         <v>19</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D19" s="1">
         <v>40</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
         <v>0.32200000000000001</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G19" s="1">
         <v>13</v>
       </c>
-      <c r="H16" s="1">
-        <v>16</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="H19" s="1">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
         <v>6</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K19" s="1">
         <v>24</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L19" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1285,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC122B7-1AC1-4F45-8C83-F6119D177E92}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -1333,37 +1537,37 @@
     </row>
     <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1">
         <v>60</v>
       </c>
       <c r="C2" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1">
         <v>3</v>
       </c>
       <c r="F2" s="1">
-        <v>0.45600000000000002</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="G2" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" s="1">
         <v>2</v>
@@ -1371,151 +1575,151 @@
     </row>
     <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>60</v>
       </c>
       <c r="C3" s="1">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>0.47499999999999998</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="G3" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K3" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>60</v>
       </c>
       <c r="C4" s="1">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1">
         <v>31</v>
       </c>
-      <c r="D4" s="1">
-        <v>28</v>
-      </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1">
-        <v>0.52500000000000002</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="G4" s="1">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
         <v>15</v>
       </c>
-      <c r="H4" s="1">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>16</v>
-      </c>
       <c r="K4" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>60</v>
       </c>
       <c r="C5" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>0.38300000000000001</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G5" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1">
         <v>17</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>10</v>
-      </c>
-      <c r="K5" s="1">
-        <v>20</v>
-      </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>60</v>
       </c>
       <c r="C6" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1">
         <v>28</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>0.53300000000000003</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G6" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H6" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K6" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
@@ -1523,75 +1727,75 @@
     </row>
     <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1">
         <v>17</v>
       </c>
-      <c r="B7" s="1">
-        <v>60</v>
-      </c>
-      <c r="C7" s="1">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="G7" s="1">
-        <v>17</v>
-      </c>
-      <c r="H7" s="1">
-        <v>13</v>
-      </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K7" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <v>60</v>
       </c>
       <c r="C8" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0.45</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="G8" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K8" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
@@ -1599,75 +1803,75 @@
     </row>
     <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>60</v>
       </c>
       <c r="C9" s="1">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1">
         <v>27</v>
       </c>
-      <c r="D9" s="1">
-        <v>33</v>
-      </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
-        <v>0.45</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="G9" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K9" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
         <v>60</v>
       </c>
       <c r="C10" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>0.46700000000000003</v>
+        <v>0.45</v>
       </c>
       <c r="G10" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K10" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
@@ -1675,39 +1879,115 @@
     </row>
     <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G11" s="1">
+        <v>15</v>
+      </c>
+      <c r="H11" s="1">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>12</v>
+      </c>
+      <c r="K11" s="1">
+        <v>18</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="G12" s="1">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>16</v>
+      </c>
+      <c r="K12" s="1">
+        <v>14</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1">
-        <v>60</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B13" s="1">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1">
         <v>20</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D13" s="1">
         <v>38</v>
       </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
         <v>0.34499999999999997</v>
       </c>
-      <c r="G11" s="1">
-        <v>14</v>
-      </c>
-      <c r="H11" s="1">
-        <v>14</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="G13" s="1">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
         <v>6</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K13" s="1">
         <v>24</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L13" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1719,10 +1999,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D67647-F9D6-4BE6-8639-842CD79FB171}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -1767,77 +2047,153 @@
     </row>
     <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1">
         <v>60</v>
       </c>
       <c r="C2" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.47499999999999998</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="G2" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="G3" s="1">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1">
         <v>13</v>
       </c>
-      <c r="B3" s="1">
-        <v>60</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="G4" s="1">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1">
         <v>22</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D5" s="1">
         <v>36</v>
       </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.379</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G5" s="1">
         <v>11</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H5" s="1">
         <v>17</v>
       </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
         <v>11</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K5" s="1">
         <v>19</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1851,8 +2207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07D107E-09B8-4E5B-9766-2B18D6387F07}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -1904,10 +2260,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B79EAEC-11D9-4F1D-A6EA-A2C12FB6BF93}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -1952,37 +2308,37 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>42</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="G2">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>60</v>
-      </c>
-      <c r="C2">
-        <v>32</v>
-      </c>
-      <c r="D2">
-        <v>25</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="G2">
-        <v>20</v>
-      </c>
       <c r="H2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -1990,37 +2346,37 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>60</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>0.55200000000000005</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -2028,7 +2384,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>60</v>
@@ -2037,28 +2393,28 @@
         <v>32</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.54200000000000004</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -2066,75 +2422,75 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>60</v>
       </c>
       <c r="C5">
+        <v>32</v>
+      </c>
+      <c r="D5">
         <v>26</v>
       </c>
-      <c r="D5">
-        <v>34</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.433</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="H5">
-        <v>17</v>
-      </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
+        <v>16</v>
+      </c>
+      <c r="K5">
         <v>13</v>
       </c>
-      <c r="K5">
-        <v>17</v>
-      </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>60</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.39</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K6">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -2142,151 +2498,151 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>60</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>34</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.42399999999999999</v>
+        <v>0.433</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>60</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.49199999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K8">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
         <v>19</v>
       </c>
-      <c r="B9">
-        <v>60</v>
-      </c>
-      <c r="C9">
-        <v>35</v>
-      </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="G9">
-        <v>21</v>
-      </c>
-      <c r="H9">
-        <v>9</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>14</v>
-      </c>
-      <c r="K9">
-        <v>16</v>
-      </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>60</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.56699999999999995</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10">
         <v>14</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2294,75 +2650,75 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="G11">
         <v>21</v>
       </c>
-      <c r="B11">
-        <v>60</v>
-      </c>
-      <c r="C11">
-        <v>23</v>
-      </c>
-      <c r="D11">
-        <v>35</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="G11">
-        <v>11</v>
-      </c>
       <c r="H11">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>60</v>
       </c>
       <c r="C12">
+        <v>34</v>
+      </c>
+      <c r="D12">
         <v>26</v>
       </c>
-      <c r="D12">
-        <v>34</v>
-      </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.433</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K12">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2370,113 +2726,113 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>60</v>
+      </c>
+      <c r="C13">
         <v>23</v>
       </c>
-      <c r="B13">
-        <v>60</v>
-      </c>
-      <c r="C13">
-        <v>29</v>
-      </c>
       <c r="D13">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.48299999999999998</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="G13">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13">
         <v>17</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>60</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.39</v>
+        <v>0.433</v>
       </c>
       <c r="G14">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K14">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>60</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.441</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="G15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K15">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2484,37 +2840,37 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>60</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.45600000000000002</v>
+        <v>0.39</v>
       </c>
       <c r="G16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H16">
         <v>14</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K16">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -2522,39 +2878,115 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>60</v>
+      </c>
+      <c r="C17">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.441</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>12</v>
+      </c>
+      <c r="K17">
+        <v>18</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>60</v>
+      </c>
+      <c r="C18">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>31</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="G18">
+        <v>14</v>
+      </c>
+      <c r="H18">
+        <v>14</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>12</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B17">
-        <v>60</v>
-      </c>
-      <c r="C17">
+      <c r="B19">
+        <v>60</v>
+      </c>
+      <c r="C19">
         <v>32</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>24</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <v>4</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <v>0.57099999999999995</v>
       </c>
-      <c r="G17">
-        <v>16</v>
-      </c>
-      <c r="H17">
+      <c r="G19">
+        <v>16</v>
+      </c>
+      <c r="H19">
         <v>12</v>
       </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17">
-        <v>16</v>
-      </c>
-      <c r="K17">
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>16</v>
+      </c>
+      <c r="K19">
         <v>12</v>
       </c>
-      <c r="L17">
+      <c r="L19">
         <v>2</v>
       </c>
     </row>
